--- a/Analise.xlsx
+++ b/Analise.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonca\Desktop\faculdade\3 ano 2 semestre\CPD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonca\Desktop\faculdade\3 ano 2 semestre\CPD\CPD_P1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C3F33D0-423F-4C86-9318-D0CD449A8F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF179B5-36A4-4ED4-BB1C-6A2ADA1F73F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="2" xr2:uid="{D246819D-8DF6-4BA5-98FF-F579BB978047}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="3" xr2:uid="{D246819D-8DF6-4BA5-98FF-F579BB978047}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Analise" sheetId="3" r:id="rId3"/>
+    <sheet name="8 core" sheetId="3" r:id="rId3"/>
+    <sheet name="Speed up" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="17">
   <si>
     <t>CPP</t>
   </si>
@@ -77,6 +78,18 @@
   </si>
   <si>
     <t>speedup de 1 para 2</t>
+  </si>
+  <si>
+    <t>Speed up 1</t>
+  </si>
+  <si>
+    <t>Cpp N paralelizado</t>
+  </si>
+  <si>
+    <t>Cpp paralelizado</t>
+  </si>
+  <si>
+    <t>Speedup 2</t>
   </si>
 </sst>
 </file>
@@ -414,7 +427,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1049,7 +1061,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3199,7 +3210,7 @@
   <dimension ref="E9:P24"/>
   <sheetViews>
     <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+      <selection activeCell="Q18" sqref="M10:Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3633,8 +3644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F29F97-EB03-45E3-8AA4-417A1AB0BFF0}">
   <dimension ref="C5:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L28" sqref="B4:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3681,7 +3692,7 @@
         <v>17202133006</v>
       </c>
       <c r="J8">
-        <f>I8/F8/POWER(10,6)</f>
+        <f t="shared" ref="J8:J15" si="0">I8/F8/POWER(10,6)</f>
         <v>449.35303813802841</v>
       </c>
     </row>
@@ -3702,7 +3713,7 @@
         <v>17201145377</v>
       </c>
       <c r="J9">
-        <f>I9/F9/POWER(10,6)</f>
+        <f t="shared" si="0"/>
         <v>440.61439527139527</v>
       </c>
     </row>
@@ -3723,7 +3734,7 @@
         <v>58033834264</v>
       </c>
       <c r="J10">
-        <f>I10/F10/POWER(10,6)</f>
+        <f t="shared" si="0"/>
         <v>480.75081194549142</v>
       </c>
       <c r="M10" t="s">
@@ -3747,7 +3758,7 @@
         <v>58028985117</v>
       </c>
       <c r="J11">
-        <f>I11/F11/POWER(10,6)</f>
+        <f t="shared" si="0"/>
         <v>488.3361534713456</v>
       </c>
       <c r="M11">
@@ -3772,11 +3783,11 @@
         <v>137521253148</v>
       </c>
       <c r="J12">
-        <f>I12/F12/POWER(10,6)</f>
+        <f t="shared" si="0"/>
         <v>510.24318382612114</v>
       </c>
       <c r="M12">
-        <f t="shared" ref="M12:M18" si="0">F9/E22</f>
+        <f t="shared" ref="M12:M18" si="1">F9/E22</f>
         <v>5.3244680851063837</v>
       </c>
     </row>
@@ -3797,11 +3808,11 @@
         <v>137522677194</v>
       </c>
       <c r="J13">
-        <f>I13/F13/POWER(10,6)</f>
+        <f t="shared" si="0"/>
         <v>547.77253540616118</v>
       </c>
       <c r="M13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.6031101692385756</v>
       </c>
     </row>
@@ -3822,11 +3833,11 @@
         <v>94822013897272</v>
       </c>
       <c r="J14">
-        <f>I14/F14/POWER(10,6)</f>
+        <f t="shared" si="0"/>
         <v>194224.62126239634</v>
       </c>
       <c r="M14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.6244128591471969</v>
       </c>
     </row>
@@ -3847,29 +3858,29 @@
         <v>94822013897272</v>
       </c>
       <c r="J15">
-        <f>I15/F15/POWER(10,6)</f>
+        <f t="shared" si="0"/>
         <v>192265.7637490257</v>
       </c>
       <c r="M15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0601305705364745</v>
       </c>
     </row>
     <row r="16" spans="4:13" x14ac:dyDescent="0.35">
       <c r="M16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7169014999026033</v>
       </c>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.35">
       <c r="M17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5100281229595431</v>
       </c>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.35">
       <c r="M18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6191707780793112</v>
       </c>
     </row>
@@ -3937,7 +3948,7 @@
         <v>17179869185</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I22:I28" si="1">H22/E22/POWER(10,6)</f>
+        <f t="shared" ref="I22:I28" si="2">H22/E22/POWER(10,6)</f>
         <v>2343.1354589470816</v>
       </c>
     </row>
@@ -3958,7 +3969,7 @@
         <v>57982058497</v>
       </c>
       <c r="I23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1730.652732501567</v>
       </c>
     </row>
@@ -3979,7 +3990,7 @@
         <v>57982058497</v>
       </c>
       <c r="I24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1768.5005336729091</v>
       </c>
     </row>
@@ -4000,7 +4011,7 @@
         <v>137438953473</v>
       </c>
       <c r="I25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1560.476338041442</v>
       </c>
     </row>
@@ -4021,7 +4032,7 @@
         <v>137438953473</v>
       </c>
       <c r="I26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1487.3379810077267</v>
       </c>
     </row>
@@ -4042,7 +4053,7 @@
         <v>268435456001</v>
       </c>
       <c r="I27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1380.1095921451085</v>
       </c>
     </row>
@@ -4063,7 +4074,603 @@
         <v>268435456001</v>
       </c>
       <c r="I28">
+        <f t="shared" si="2"/>
+        <v>1425.5960318061361</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BEDF108-34D8-4B8A-BC2B-6A00188669C6}">
+  <dimension ref="B4:S29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="4" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>4096</v>
+      </c>
+      <c r="D6">
+        <v>41.964500000000001</v>
+      </c>
+      <c r="E6">
+        <v>17542327778</v>
+      </c>
+      <c r="F6">
+        <v>16231919075</v>
+      </c>
+      <c r="M6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>4096</v>
+      </c>
+      <c r="D7">
+        <v>41.1402</v>
+      </c>
+      <c r="E7">
+        <v>17530573976</v>
+      </c>
+      <c r="F7">
+        <v>16141945960</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>6144</v>
+      </c>
+      <c r="D8">
+        <v>139.387</v>
+      </c>
+      <c r="E8">
+        <v>59132712253</v>
+      </c>
+      <c r="F8">
+        <v>54520757030</v>
+      </c>
+      <c r="N8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>6144</v>
+      </c>
+      <c r="D9">
+        <v>140.059</v>
+      </c>
+      <c r="E9">
+        <v>59140474227</v>
+      </c>
+      <c r="F9">
+        <v>54387147054</v>
+      </c>
+      <c r="N9">
+        <v>4096</v>
+      </c>
+      <c r="O9">
+        <v>38.281999999999996</v>
+      </c>
+      <c r="P9">
+        <v>1328580514</v>
+      </c>
+      <c r="Q9">
+        <v>2911000612</v>
+      </c>
+      <c r="R9">
+        <v>17202133006</v>
+      </c>
+      <c r="S9">
+        <f t="shared" ref="S9:S16" si="0">R9/O9/POWER(10,6)</f>
+        <v>449.35303813802841</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>8192</v>
+      </c>
+      <c r="D10">
+        <v>334.49700000000001</v>
+      </c>
+      <c r="E10">
+        <v>140175979298</v>
+      </c>
+      <c r="F10">
+        <v>130382327543</v>
+      </c>
+      <c r="N10">
+        <v>4096</v>
+      </c>
+      <c r="O10">
+        <v>39.039000000000001</v>
+      </c>
+      <c r="P10">
+        <v>1335762223</v>
+      </c>
+      <c r="Q10">
+        <v>2899537938</v>
+      </c>
+      <c r="R10">
+        <v>17201145377</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>440.61439527139527</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <v>8192</v>
+      </c>
+      <c r="D11">
+        <v>337.714</v>
+      </c>
+      <c r="E11">
+        <v>140226426983</v>
+      </c>
+      <c r="F11">
+        <v>131057438259</v>
+      </c>
+      <c r="N11">
+        <v>6144</v>
+      </c>
+      <c r="O11">
+        <v>120.715</v>
+      </c>
+      <c r="P11">
+        <v>4307833416</v>
+      </c>
+      <c r="Q11">
+        <v>8972187400</v>
+      </c>
+      <c r="R11">
+        <v>58033834264</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>480.75081194549142</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <v>10240</v>
+      </c>
+      <c r="D12">
+        <v>652.05200000000002</v>
+      </c>
+      <c r="E12">
+        <v>273540569324</v>
+      </c>
+      <c r="F12">
+        <v>255620225863</v>
+      </c>
+      <c r="N12">
+        <v>6144</v>
+      </c>
+      <c r="O12">
+        <v>118.83</v>
+      </c>
+      <c r="P12">
+        <v>4291915128</v>
+      </c>
+      <c r="Q12">
+        <v>8833516044</v>
+      </c>
+      <c r="R12">
+        <v>58028985117</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>488.3361534713456</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <v>10240</v>
+      </c>
+      <c r="D13">
+        <v>648.70600000000002</v>
+      </c>
+      <c r="E13">
+        <v>273494508658</v>
+      </c>
+      <c r="F13">
+        <v>256177797641</v>
+      </c>
+      <c r="N13">
+        <v>8192</v>
+      </c>
+      <c r="O13">
+        <v>269.52100000000002</v>
+      </c>
+      <c r="P13">
+        <v>9621131630</v>
+      </c>
+      <c r="Q13">
+        <v>17212598968</v>
+      </c>
+      <c r="R13">
+        <v>137521253148</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>510.24318382612114</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="N14">
+        <v>8192</v>
+      </c>
+      <c r="O14">
+        <v>251.05799999999999</v>
+      </c>
+      <c r="P14">
+        <v>9638885113</v>
+      </c>
+      <c r="Q14">
+        <v>17267372856</v>
+      </c>
+      <c r="R14">
+        <v>137522677194</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>547.77253540616118</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="N15">
+        <v>10240</v>
+      </c>
+      <c r="O15">
+        <v>488.20800000000003</v>
+      </c>
+      <c r="P15">
+        <v>18949958673</v>
+      </c>
+      <c r="Q15">
+        <v>32021341566</v>
+      </c>
+      <c r="R15">
+        <v>94822013897272</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>194224.62126239634</v>
+      </c>
+    </row>
+    <row r="16" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="N16">
+        <v>10240</v>
+      </c>
+      <c r="O16">
+        <v>493.18200000000002</v>
+      </c>
+      <c r="P16">
+        <v>18864546719</v>
+      </c>
+      <c r="Q16">
+        <v>31530836099</v>
+      </c>
+      <c r="R16">
+        <v>94822013897272</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>192265.7637490257</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <f>D6/N22</f>
+        <v>5.6916451919164519</v>
+      </c>
+      <c r="E19">
+        <f>D6/O9</f>
+        <v>1.0961940337495431</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <f t="shared" ref="B20:B31" si="1">D7/N23</f>
+        <v>5.6110474631751233</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:E26" si="2">D7/O10</f>
+        <v>1.053823099976946</v>
+      </c>
+      <c r="M20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B21">
         <f t="shared" si="1"/>
+        <v>4.160433394024416</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>1.1546783746841733</v>
+      </c>
+      <c r="M21" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>4.2719148417007258</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>1.178650172515358</v>
+      </c>
+      <c r="M22">
+        <v>4096</v>
+      </c>
+      <c r="N22">
+        <v>7.3730000000000002</v>
+      </c>
+      <c r="O22">
+        <v>2200879704</v>
+      </c>
+      <c r="P22">
+        <v>2125800597</v>
+      </c>
+      <c r="Q22">
+        <v>17179869185</v>
+      </c>
+      <c r="R22">
+        <f>Q22/N22/POWER(10,6)</f>
+        <v>2330.1056808626067</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>3.7978654555776328</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>1.2410795448221104</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23">
+        <v>4096</v>
+      </c>
+      <c r="N23">
+        <v>7.3319999999999999</v>
+      </c>
+      <c r="O23">
+        <v>2200720140</v>
+      </c>
+      <c r="P23">
+        <v>2112504084</v>
+      </c>
+      <c r="Q23">
+        <v>17179869185</v>
+      </c>
+      <c r="R23">
+        <f t="shared" ref="R23:R29" si="3">Q23/N23/POWER(10,6)</f>
+        <v>2343.1354589470816</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>3.6546761032833364</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>1.3451632690453998</v>
+      </c>
+      <c r="M24">
+        <v>6144</v>
+      </c>
+      <c r="N24">
+        <v>33.503</v>
+      </c>
+      <c r="O24">
+        <v>7423997711</v>
+      </c>
+      <c r="P24">
+        <v>7141531979</v>
+      </c>
+      <c r="Q24">
+        <v>57982058497</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="3"/>
+        <v>1730.652732501567</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>3.3524007341789077</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>1.3356028577983154</v>
+      </c>
+      <c r="M25">
+        <v>6144</v>
+      </c>
+      <c r="N25">
+        <v>32.786000000000001</v>
+      </c>
+      <c r="O25">
+        <v>7427029464</v>
+      </c>
+      <c r="P25">
+        <v>7176531961</v>
+      </c>
+      <c r="Q25">
+        <v>57982058497</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="3"/>
+        <v>1768.5005336729091</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>3.4451212711832904</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>1.3153480865076179</v>
+      </c>
+      <c r="M26">
+        <v>8192</v>
+      </c>
+      <c r="N26">
+        <v>88.075000000000003</v>
+      </c>
+      <c r="O26">
+        <v>17573308851</v>
+      </c>
+      <c r="P26">
+        <v>17254849607</v>
+      </c>
+      <c r="Q26">
+        <v>137438953473</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="3"/>
+        <v>1560.476338041442</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="M27">
+        <v>8192</v>
+      </c>
+      <c r="N27">
+        <v>92.406000000000006</v>
+      </c>
+      <c r="O27">
+        <v>17567859376</v>
+      </c>
+      <c r="P27">
+        <v>17168337690</v>
+      </c>
+      <c r="Q27">
+        <v>137438953473</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="3"/>
+        <v>1487.3379810077267</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="M28">
+        <v>10240</v>
+      </c>
+      <c r="N28">
+        <v>194.50299999999999</v>
+      </c>
+      <c r="O28">
+        <v>34259340584</v>
+      </c>
+      <c r="P28">
+        <v>36565694820</v>
+      </c>
+      <c r="Q28">
+        <v>268435456001</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="3"/>
+        <v>1380.1095921451085</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="M29">
+        <v>10240</v>
+      </c>
+      <c r="N29">
+        <v>188.297</v>
+      </c>
+      <c r="O29">
+        <v>34267491455</v>
+      </c>
+      <c r="P29">
+        <v>38853500646</v>
+      </c>
+      <c r="Q29">
+        <v>268435456001</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="3"/>
         <v>1425.5960318061361</v>
       </c>
     </row>
